--- a/Fichier_Dictionnaire.xlsx
+++ b/Fichier_Dictionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\Projet Terminator\1003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Idriss\Desktop\TERMINATOR\Deli\Terminator-master (1)\Terminator-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FAB77C-C320-48E0-8080-D8BBDD47267B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DB8AE5-7FF6-4B2C-A1BD-A10BA95AA7BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organes" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="1065">
   <si>
     <t>Property</t>
   </si>
@@ -3162,6 +3162,63 @@
   </si>
   <si>
     <t>not visible</t>
+  </si>
+  <si>
+    <t>curved dorsally</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>1 to 4</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>1 to 6</t>
+  </si>
+  <si>
+    <t>1 to 10</t>
+  </si>
+  <si>
+    <t>1 to 9</t>
+  </si>
+  <si>
+    <t>1 to 8</t>
+  </si>
+  <si>
+    <t>1 to 7</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>2 or 3</t>
+  </si>
+  <si>
+    <t>3 or 4</t>
+  </si>
+  <si>
+    <t>4 or 5</t>
+  </si>
+  <si>
+    <t>5 or 6</t>
+  </si>
+  <si>
+    <t>6 or 7</t>
+  </si>
+  <si>
+    <t>7 or 8</t>
+  </si>
+  <si>
+    <t>8 or 9</t>
+  </si>
+  <si>
+    <t>9 or 10</t>
   </si>
 </sst>
 </file>
@@ -4397,14 +4454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5321"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="74" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -42130,16 +42187,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -42408,16 +42465,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>454</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -42426,7 +42483,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -42435,16 +42492,16 @@
         <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="22.5">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -42453,7 +42510,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1044</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -42462,16 +42519,16 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>1045</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -42480,16 +42537,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -42498,16 +42555,16 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -42516,7 +42573,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -42525,7 +42582,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -42534,7 +42591,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -42543,16 +42600,16 @@
         <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -42561,7 +42618,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -42570,7 +42627,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -42579,16 +42636,16 @@
         <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" ht="22.5">
-      <c r="A50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -42597,16 +42654,16 @@
         <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="22.5">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -42615,34 +42672,34 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" ht="22.5">
-      <c r="A54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="22.5">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>35</v>
+        <v>500</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -42651,7 +42708,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -42660,7 +42717,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>529</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -42669,7 +42726,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -42678,7 +42735,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -42687,7 +42744,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -42696,7 +42753,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -42705,7 +42762,7 @@
         <v>49</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>772</v>
+        <v>532</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -42714,7 +42771,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>534</v>
+        <v>772</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -42723,7 +42780,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>773</v>
+        <v>534</v>
       </c>
       <c r="C65" s="3"/>
     </row>
@@ -42732,7 +42789,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>533</v>
+        <v>773</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -42741,7 +42798,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -42750,7 +42807,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C68" s="3"/>
     </row>
@@ -42759,7 +42816,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>774</v>
+        <v>627</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -42768,7 +42825,7 @@
         <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>664</v>
+        <v>774</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -42777,7 +42834,7 @@
         <v>49</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -42786,7 +42843,7 @@
         <v>49</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C72" s="3"/>
     </row>
@@ -42795,7 +42852,7 @@
         <v>49</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>776</v>
+        <v>676</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -42804,7 +42861,7 @@
         <v>49</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>596</v>
+        <v>776</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -42813,7 +42870,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>668</v>
+        <v>596</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -42822,43 +42879,43 @@
         <v>49</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>468</v>
+        <v>669</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>476</v>
+        <v>771</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="22.5">
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -42867,16 +42924,16 @@
         <v>51</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>591</v>
+        <v>468</v>
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="22.5">
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>592</v>
+        <v>476</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -42885,97 +42942,97 @@
         <v>51</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>62</v>
+        <v>592</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>496</v>
+        <v>727</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>595</v>
+        <v>59</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>596</v>
+        <v>62</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>619</v>
+        <v>496</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>757</v>
+        <v>594</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -42984,7 +43041,7 @@
         <v>48</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>842</v>
+        <v>596</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -42993,7 +43050,7 @@
         <v>48</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>758</v>
+        <v>619</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -43002,7 +43059,7 @@
         <v>48</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="C96" s="3"/>
     </row>
@@ -43011,7 +43068,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -43020,7 +43077,7 @@
         <v>48</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>729</v>
+        <v>842</v>
       </c>
       <c r="C98" s="3"/>
     </row>
@@ -43029,7 +43086,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>621</v>
+        <v>758</v>
       </c>
       <c r="C99" s="3"/>
     </row>
@@ -43038,7 +43095,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -43047,43 +43104,43 @@
         <v>48</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>721</v>
+        <v>599</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>736</v>
+        <v>600</v>
       </c>
       <c r="C105" s="3"/>
     </row>
@@ -43092,7 +43149,7 @@
         <v>575</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -43101,7 +43158,7 @@
         <v>575</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -43110,52 +43167,52 @@
         <v>575</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>828</v>
+        <v>721</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>764</v>
+        <v>1046</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>760</v>
+        <v>575</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>765</v>
+        <v>828</v>
       </c>
       <c r="C113" s="3"/>
     </row>
@@ -43164,7 +43221,7 @@
         <v>760</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C114" s="3"/>
     </row>
@@ -43173,7 +43230,7 @@
         <v>760</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -43182,7 +43239,7 @@
         <v>760</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C116" s="3"/>
     </row>
@@ -43191,7 +43248,7 @@
         <v>760</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -43200,52 +43257,215 @@
         <v>760</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="C121" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43256,17 +43476,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE86C9-1665-4B9D-87AE-6C8D590AB305}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1026</v>
       </c>
@@ -43274,7 +43494,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1026</v>
       </c>
@@ -43282,7 +43502,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1026</v>
       </c>
@@ -43290,7 +43510,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1026</v>
       </c>
@@ -43298,7 +43518,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>1026</v>
       </c>
@@ -43306,7 +43526,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1027</v>
       </c>
@@ -43314,7 +43534,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="25.5">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1027</v>
       </c>
@@ -43322,7 +43542,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.5">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>1027</v>
       </c>
@@ -43330,7 +43550,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.5">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>1027</v>
       </c>
@@ -43338,7 +43558,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.5">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>1027</v>
       </c>
@@ -43346,7 +43566,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.5">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1027</v>
       </c>
@@ -43354,7 +43574,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="25.5">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>1027</v>
       </c>
@@ -43362,7 +43582,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="25.5">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>1027</v>
       </c>
@@ -43481,13 +43701,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67029488-FF29-4A4F-8776-A962EBE7AA7E}">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
@@ -43723,7 +43943,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.5">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -43819,7 +44039,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.5">
+    <row r="48" spans="1:2" ht="21">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -44033,7 +44253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="22.5">
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -44041,7 +44261,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="22.5">
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -44049,7 +44269,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="22.5">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
@@ -44135,7 +44355,7 @@
       </c>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" ht="22.5">
+    <row r="92" spans="1:2" ht="21">
       <c r="A92" s="3" t="s">
         <v>482</v>
       </c>
@@ -44143,7 +44363,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="22.5">
+    <row r="93" spans="1:2" ht="21">
       <c r="A93" s="3" t="s">
         <v>482</v>
       </c>
@@ -44159,7 +44379,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="22.5">
+    <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
         <v>486</v>
       </c>
@@ -44177,7 +44397,7 @@
       </c>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:2" ht="22.5">
+    <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
         <v>500</v>
       </c>
@@ -44345,7 +44565,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="22.5">
+    <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
         <v>1031</v>
       </c>
@@ -44363,7 +44583,7 @@
       </c>
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:2" ht="22.5">
+    <row r="126" spans="1:2">
       <c r="A126" s="3" t="s">
         <v>1034</v>
       </c>
@@ -44437,7 +44657,7 @@
       </c>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:2" ht="22.5">
+    <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
         <v>610</v>
       </c>
@@ -44449,7 +44669,7 @@
       </c>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2" ht="22.5">
+    <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
         <v>592</v>
       </c>
@@ -44585,34 +44805,36 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
-        <v>637</v>
+        <v>869</v>
       </c>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B162" s="3"/>
+        <v>639</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -44620,145 +44842,137 @@
         <v>639</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>640</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>868</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B168" s="3"/>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>1039</v>
+        <v>663</v>
       </c>
       <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="3" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="B173" s="3"/>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="3" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="3" t="s">
-        <v>723</v>
+        <v>828</v>
       </c>
       <c r="B176" s="3"/>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="3" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="B177" s="3"/>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B179" s="3"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="3" t="s">
         <v>770</v>
       </c>
     </row>
@@ -44771,19 +44985,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="58.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="14">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -46073,7 +46287,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="22.5">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="3" t="s">
         <v>156</v>
       </c>
@@ -46183,7 +46397,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="22.5">
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>165</v>
       </c>
@@ -46195,7 +46409,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" ht="22.5">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
         <v>165</v>
       </c>
@@ -47012,7 +47226,9 @@
       <c r="B174" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>600</v>
+      </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4">
